--- a/LightOJ/1061 - N Queen Again (Proof).xlsx
+++ b/LightOJ/1061 - N Queen Again (Proof).xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuChang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workplace\ACM-solutions\LightOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="指定位置_初始" sheetId="1" r:id="rId1"/>
     <sheet name="指定位置_结果" sheetId="2" r:id="rId2"/>
     <sheet name="不指定位置_初始" sheetId="3" r:id="rId3"/>
     <sheet name="不指定位置_结果" sheetId="4" r:id="rId4"/>
+    <sheet name="alpha" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +171,50 @@
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +408,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF252525"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -387,13 +438,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +572,75 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,6 +650,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF252525"/>
       <color rgb="FFFCEDCE"/>
     </mruColors>
   </colors>
@@ -782,7 +965,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,7 +1093,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1270,4 +1453,194 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="9" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="39"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="38"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LightOJ/1061 - N Queen Again (Proof).xlsx
+++ b/LightOJ/1061 - N Queen Again (Proof).xlsx
@@ -618,18 +618,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -640,6 +628,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1460,28 +1460,28 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="6.625" customWidth="1"/>
+    <col min="2" max="9" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1492,10 +1492,10 @@
       <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1509,7 +1509,7 @@
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="22"/>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
@@ -1539,7 +1539,7 @@
       <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="22"/>
       <c r="C6" s="30"/>
       <c r="D6" s="22" t="s">
@@ -1557,7 +1557,7 @@
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="22"/>
       <c r="C7" s="32" t="s">
         <v>18</v>
@@ -1571,7 +1571,7 @@
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1585,7 +1585,7 @@
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="33"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -1599,8 +1599,8 @@
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -1611,7 +1611,7 @@
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -1623,7 +1623,7 @@
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
